--- a/output/Output.xlsx
+++ b/output/Output.xlsx
@@ -26,7 +26,7 @@
     <t>416-8394</t>
   </si>
   <si>
-    <t/>
+    <t>0.0</t>
   </si>
   <si>
     <t xml:space="preserve">C#, .Net, HTML, CSS, JavaScript, </t>

--- a/output/Output.xlsx
+++ b/output/Output.xlsx
@@ -26,7 +26,7 @@
     <t>416-8394</t>
   </si>
   <si>
-    <t>0.0</t>
+    <t>55.56</t>
   </si>
   <si>
     <t xml:space="preserve">C#, .Net, HTML, CSS, JavaScript, </t>

--- a/output/Output.xlsx
+++ b/output/Output.xlsx
@@ -12,27 +12,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="35">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>﻿SATISH GOSWAMI</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>sgoswami@syr.edu</t>
+  </si>
+  <si>
+    <t>(315)450-7414</t>
+  </si>
+  <si>
+    <t>27.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linux, HTML, TCP/IP, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master's, Bachelor's, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.theijes.com/papers/v2-i4/part.%20(2)/C0242018021.pdf, https://play.google.com/store/apps/details?id=com.project.goswa.sufs, </t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
   <si>
     <t>Rakesh Nallapeta Eshwaraiah GitHub https //github com/rakeshh91</t>
   </si>
   <si>
-    <t>New York</t>
-  </si>
-  <si>
     <t>rakeshh91@gmail.com</t>
   </si>
   <si>
     <t>416-8394</t>
   </si>
   <si>
-    <t>55.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C#, .Net, HTML, CSS, JavaScript, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master's, Bachelor's, </t>
+    <t>63.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android, C#, HTML, .Net, CSS, JAVA, Java, JavaScript, </t>
   </si>
   <si>
     <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.app.mobile3i&amp;hl=en, https://github.com/rakeshh91, https://www.linkedin.com/in/rakeshh91, https://play.google.com/store/apps/details?id=com.rakesh_ap2016.GPMusicController&amp;hl=en, https://play.google.com/store/apps/details?id=com.finalproject.rakesh.cherrypick&amp;hl=en, </t>
@@ -41,40 +65,58 @@
     <t>3.94</t>
   </si>
   <si>
-    <t>﻿SATISH GOSWAMI</t>
-  </si>
-  <si>
-    <t>sgoswami@syr.edu</t>
-  </si>
-  <si>
-    <t>(315)450-7414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux, C#, HTML, TCP/IP, .NET, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.theijes.com/papers/v2-i4/part.%20(2)/C0242018021.pdf, https://play.google.com/store/apps/details?id=com.project.goswa.sufs, </t>
-  </si>
-  <si>
-    <t>3.8</t>
+    <t>Abhilash</t>
+  </si>
+  <si>
+    <t>nitishbhaskar90@gmail.com</t>
+  </si>
+  <si>
+    <t>(315)4208933</t>
+  </si>
+  <si>
+    <t>18.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.NET, JavaScript, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.nitishbhaskar.com, </t>
+  </si>
+  <si>
+    <t>3.86</t>
+  </si>
+  <si>
+    <t>﻿Chiranth Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTML, TCP/IP, Java, </t>
   </si>
   <si>
     <t>NITISH BHASKAR</t>
   </si>
   <si>
-    <t>nitishbhaskar90@gmail.com</t>
-  </si>
-  <si>
-    <t>(315)4208933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C#, HTML, AngularJS, JavaScript, .NET, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.nitishbhaskar.com, </t>
+    <t xml:space="preserve">C#, JavaScript, .NET, </t>
   </si>
   <si>
     <t>3.59</t>
+  </si>
+  <si>
+    <t>﻿Rakesh Nallapeta Eshwaraiah GitHub https //github com/rakeshh91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android, JAVA, Java, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://play.google.com/store/apps/details?id=com.app.mobile3i&amp;hl=en, https://github.com/rakeshh91, https://play.google.com/store/apps/details?id=com.rakesh_ap2016.GPMusicController&amp;hl=en, https://www.linkedin.com/in/rakeshh91, https://play.google.com/store/apps/details?id=com.finalproject.rakesh.cherrypick&amp;hl=en, </t>
+  </si>
+  <si>
+    <t>﻿Sathvik Shashidar GitHub https //github com/rakeshh91</t>
+  </si>
+  <si>
+    <t>9.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAVA, Java, </t>
   </si>
 </sst>
 </file>
@@ -119,7 +161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -130,86 +172,405 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="I4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="D10" t="s">
         <v>19</v>
       </c>
-      <c r="I3" t="s">
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
         <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
